--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4240" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -621,10 +633,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -668,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="2">
+      <c r="C19" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -714,28 +726,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -823,10 +835,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -870,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="2">
+      <c r="C26" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -916,28 +928,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -996,10 +1008,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1043,28 +1055,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1089,28 +1101,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1227,10 +1239,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1274,28 +1286,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1320,28 +1332,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1458,10 +1470,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1505,28 +1517,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1551,28 +1563,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1747,10 +1759,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1794,28 +1806,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1840,28 +1852,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2036,10 +2048,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="2" t="s">
+      <c r="J66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2083,28 +2095,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="2">
+      <c r="C68" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2129,28 +2141,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2267,10 +2279,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2314,28 +2326,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2360,28 +2372,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2498,10 +2510,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2545,28 +2557,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2591,28 +2603,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2671,10 +2683,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2718,28 +2730,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2764,28 +2776,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2931,10 +2943,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2978,28 +2990,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3024,28 +3036,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3133,10 +3145,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3180,28 +3192,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3226,28 +3238,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3335,10 +3347,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3382,28 +3394,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3428,28 +3440,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3508,10 +3520,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3555,28 +3567,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3601,28 +3613,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3739,10 +3751,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3786,28 +3798,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3832,28 +3844,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3912,10 +3924,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3959,28 +3971,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4005,28 +4017,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4085,10 +4097,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4132,28 +4144,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4178,28 +4190,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4345,10 +4357,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4392,28 +4404,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4438,28 +4450,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4518,10 +4530,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4565,28 +4577,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4611,28 +4623,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4720,10 +4732,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4767,28 +4779,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4813,28 +4825,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4893,10 +4905,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4940,28 +4952,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4986,28 +4998,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5095,10 +5107,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5142,28 +5154,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5188,28 +5200,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5268,10 +5280,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5315,28 +5327,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5361,28 +5373,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5499,10 +5511,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5546,28 +5558,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5592,28 +5604,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5701,10 +5713,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5748,28 +5760,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5794,28 +5806,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5961,10 +5973,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6008,28 +6020,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6054,28 +6066,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6134,10 +6146,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6181,28 +6193,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6227,28 +6239,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6307,10 +6319,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6354,28 +6366,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6400,28 +6412,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6480,10 +6492,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6527,28 +6539,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6573,28 +6585,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6653,10 +6665,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6700,28 +6712,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="2">
+      <c r="A228" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="2">
+      <c r="C228" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6746,28 +6758,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="2">
+      <c r="I230" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6942,10 +6954,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6989,28 +7001,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
+      <c r="A238" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="2">
+      <c r="C238" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7035,28 +7047,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="2">
+      <c r="C240" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="2">
+      <c r="D240" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="2">
+      <c r="I240" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7144,10 +7156,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="2" t="s">
+      <c r="J243" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7191,28 +7203,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="2">
+      <c r="A245" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="2">
+      <c r="C245" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7237,28 +7249,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="2">
+      <c r="C247" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="2">
+      <c r="D247" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="2">
+      <c r="I247" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7346,10 +7358,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7393,28 +7405,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7439,28 +7451,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7519,10 +7531,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7566,28 +7578,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="2">
+      <c r="A258" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="2">
+      <c r="C258" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7612,28 +7624,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="2">
+      <c r="C260" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="2">
+      <c r="D260" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="2">
+      <c r="I260" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7692,10 +7704,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="2" t="s">
+      <c r="J262" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7739,28 +7751,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="2">
+      <c r="A264" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="2">
+      <c r="C264" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7785,28 +7797,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="2">
+      <c r="C266" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="2">
+      <c r="D266" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="2">
+      <c r="I266" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7894,10 +7906,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="2" t="s">
+      <c r="J269" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -7941,28 +7953,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="2">
+      <c r="A271" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="2">
+      <c r="C271" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7987,28 +7999,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="2">
+      <c r="C273" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="2">
+      <c r="D273" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="2">
+      <c r="I273" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8125,10 +8137,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="2" t="s">
+      <c r="J277" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8172,28 +8184,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="2">
+      <c r="A279" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="2">
+      <c r="C279" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8218,28 +8230,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="2">
+      <c r="C281" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="2">
+      <c r="D281" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="2">
+      <c r="I281" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8356,10 +8368,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="2" t="s">
+      <c r="J285" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8403,28 +8415,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="2">
+      <c r="A287" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="2">
+      <c r="C287" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8449,28 +8461,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="2">
+      <c r="C289" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="2">
+      <c r="D289" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="2">
+      <c r="I289" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8529,10 +8541,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="2" t="s">
+      <c r="J291" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8576,28 +8588,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="2">
+      <c r="A293" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="2">
+      <c r="C293" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8622,28 +8634,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="2">
+      <c r="C295" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="2">
+      <c r="D295" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="2">
+      <c r="I295" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8731,10 +8743,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="2" t="s">
+      <c r="J298" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8778,28 +8790,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="2">
+      <c r="A300" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="2">
+      <c r="C300" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8824,28 +8836,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="2">
+      <c r="C302" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="2">
+      <c r="D302" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="2">
+      <c r="I302" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8933,10 +8945,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="2" t="s">
+      <c r="J305" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -8980,28 +8992,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="2">
+      <c r="A307" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="2">
+      <c r="C307" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9026,28 +9038,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="2">
+      <c r="B309" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="2">
+      <c r="C309" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="2">
+      <c r="D309" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="2">
+      <c r="E309" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="2">
+      <c r="F309" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="2">
+      <c r="G309" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="2">
+      <c r="H309" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="2">
+      <c r="I309" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9106,10 +9118,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="2" t="s">
+      <c r="J311" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9153,28 +9165,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="2">
+      <c r="A313" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="2">
+      <c r="C313" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9199,28 +9211,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="2">
+      <c r="C315" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="2">
+      <c r="D315" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="2">
+      <c r="I315" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9308,10 +9320,10 @@
       <c r="I318">
         <f>((C318-C317)^2+(D318- D317)^2)^.5</f>
       </c>
-      <c r="J318" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K318" s="2" t="s">
+      <c r="J318" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K318" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L318" t="n">
@@ -9355,28 +9367,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="s" s="2">
+      <c r="A320" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C320" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D320" t="s" s="2">
+      <c r="C320" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9401,28 +9413,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C322" t="s" s="2">
+      <c r="C322" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D322" t="s" s="2">
+      <c r="D322" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I322" t="s" s="2">
+      <c r="I322" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9510,10 +9522,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="2" t="s">
+      <c r="J325" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9557,28 +9569,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="2">
+      <c r="A327" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="2">
+      <c r="C327" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9603,28 +9615,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="2">
+      <c r="C329" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="2">
+      <c r="D329" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="2">
+      <c r="I329" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9683,10 +9695,10 @@
       <c r="I331">
         <f>((C331-C330)^2+(D331- D330)^2)^.5</f>
       </c>
-      <c r="J331" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K331" s="2" t="s">
+      <c r="J331" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K331" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L331" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4240" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10992" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -344,10 +392,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="J7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -391,28 +439,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="4">
+      <c r="A9" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="B9" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="4">
+      <c r="C9" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="4">
+      <c r="E9" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="4">
+      <c r="F9" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="4">
+      <c r="G9" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="4">
+      <c r="H9" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -437,28 +485,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="4">
+      <c r="B11" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="4">
+      <c r="C11" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="4">
+      <c r="D11" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="E11" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="4">
+      <c r="F11" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="4">
+      <c r="G11" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="4">
+      <c r="H11" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="4">
+      <c r="I11" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -633,10 +681,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="J17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -680,28 +728,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="4">
+      <c r="A19" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="4">
+      <c r="B19" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="4">
+      <c r="C19" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="4">
+      <c r="E19" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="4">
+      <c r="F19" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="4">
+      <c r="G19" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="4">
+      <c r="H19" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -726,28 +774,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="4">
+      <c r="B21" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="4">
+      <c r="C21" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="4">
+      <c r="D21" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="4">
+      <c r="E21" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="4">
+      <c r="F21" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="4">
+      <c r="G21" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="4">
+      <c r="H21" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="4">
+      <c r="I21" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -835,10 +883,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="4" t="s">
+      <c r="J24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -882,28 +930,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="4">
+      <c r="A26" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="4">
+      <c r="B26" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="4">
+      <c r="C26" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="4">
+      <c r="E26" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="4">
+      <c r="F26" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="4">
+      <c r="G26" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="4">
+      <c r="H26" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -928,28 +976,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="4">
+      <c r="B28" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="4">
+      <c r="C28" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="4">
+      <c r="D28" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="4">
+      <c r="E28" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="4">
+      <c r="F28" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="4">
+      <c r="G28" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="4">
+      <c r="H28" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="4">
+      <c r="I28" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1008,10 +1056,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="4" t="s">
+      <c r="J30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1055,28 +1103,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="4">
+      <c r="A32" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="4">
+      <c r="B32" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="4">
+      <c r="C32" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="4">
+      <c r="E32" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="4">
+      <c r="F32" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="4">
+      <c r="G32" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="4">
+      <c r="H32" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1101,28 +1149,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="4">
+      <c r="B34" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="4">
+      <c r="C34" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="4">
+      <c r="D34" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="4">
+      <c r="E34" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="4">
+      <c r="F34" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="4">
+      <c r="G34" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="4">
+      <c r="H34" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="4">
+      <c r="I34" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1239,10 +1287,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="4" t="s">
+      <c r="J38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1286,28 +1334,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="4">
+      <c r="A40" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="4">
+      <c r="B40" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="4">
+      <c r="C40" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="4">
+      <c r="E40" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="4">
+      <c r="F40" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="4">
+      <c r="G40" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="4">
+      <c r="H40" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1332,28 +1380,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="4">
+      <c r="B42" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="4">
+      <c r="C42" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="4">
+      <c r="D42" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="4">
+      <c r="E42" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="4">
+      <c r="F42" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="4">
+      <c r="G42" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="4">
+      <c r="H42" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="4">
+      <c r="I42" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1470,10 +1518,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="4" t="s">
+      <c r="J46" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1517,28 +1565,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="4">
+      <c r="A48" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="4">
+      <c r="B48" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="4">
+      <c r="C48" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="4">
+      <c r="E48" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="4">
+      <c r="F48" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="4">
+      <c r="G48" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="4">
+      <c r="H48" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1563,28 +1611,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="4">
+      <c r="B50" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="4">
+      <c r="C50" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="4">
+      <c r="D50" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="4">
+      <c r="E50" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="4">
+      <c r="F50" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="4">
+      <c r="G50" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="4">
+      <c r="H50" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="4">
+      <c r="I50" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1759,10 +1807,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="4" t="s">
+      <c r="J56" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1806,28 +1854,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="4">
+      <c r="A58" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="4">
+      <c r="B58" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="4">
+      <c r="C58" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="4">
+      <c r="E58" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="4">
+      <c r="F58" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="4">
+      <c r="G58" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="4">
+      <c r="H58" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1852,28 +1900,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="4">
+      <c r="B60" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="4">
+      <c r="C60" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="4">
+      <c r="D60" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="4">
+      <c r="E60" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="4">
+      <c r="F60" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="4">
+      <c r="G60" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="4">
+      <c r="H60" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="4">
+      <c r="I60" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2048,10 +2096,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="4" t="s">
+      <c r="J66" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2095,28 +2143,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="4">
+      <c r="A68" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="4">
+      <c r="B68" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="4">
+      <c r="C68" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="4">
+      <c r="E68" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="4">
+      <c r="F68" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="4">
+      <c r="G68" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="4">
+      <c r="H68" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2141,28 +2189,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="4">
+      <c r="B70" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="4">
+      <c r="C70" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="4">
+      <c r="D70" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="4">
+      <c r="E70" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="4">
+      <c r="F70" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="4">
+      <c r="G70" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="4">
+      <c r="H70" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="4">
+      <c r="I70" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2279,10 +2327,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="4" t="s">
+      <c r="J74" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2326,28 +2374,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="4">
+      <c r="A76" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="4">
+      <c r="B76" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="4">
+      <c r="C76" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="4">
+      <c r="E76" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="4">
+      <c r="F76" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="4">
+      <c r="G76" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="4">
+      <c r="H76" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2372,28 +2420,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="4">
+      <c r="B78" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="4">
+      <c r="C78" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="4">
+      <c r="D78" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="4">
+      <c r="E78" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="4">
+      <c r="F78" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="4">
+      <c r="G78" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="4">
+      <c r="H78" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="4">
+      <c r="I78" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2510,10 +2558,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="4" t="s">
+      <c r="J82" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2557,28 +2605,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="4">
+      <c r="A84" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="4">
+      <c r="B84" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="4">
+      <c r="C84" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="4">
+      <c r="E84" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="4">
+      <c r="F84" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="4">
+      <c r="G84" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="4">
+      <c r="H84" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2603,28 +2651,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="4">
+      <c r="B86" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="4">
+      <c r="C86" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="4">
+      <c r="D86" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="4">
+      <c r="E86" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="4">
+      <c r="F86" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="4">
+      <c r="G86" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="4">
+      <c r="H86" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="4">
+      <c r="I86" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2683,10 +2731,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="4" t="s">
+      <c r="J88" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2730,28 +2778,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="4">
+      <c r="A90" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="4">
+      <c r="B90" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="4">
+      <c r="C90" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="4">
+      <c r="E90" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="4">
+      <c r="F90" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="4">
+      <c r="G90" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="4">
+      <c r="H90" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2776,28 +2824,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="4">
+      <c r="B92" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="4">
+      <c r="C92" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="4">
+      <c r="D92" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="4">
+      <c r="E92" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="4">
+      <c r="F92" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="4">
+      <c r="G92" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="4">
+      <c r="H92" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="4">
+      <c r="I92" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2943,10 +2991,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="4" t="s">
+      <c r="J97" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2990,28 +3038,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="4">
+      <c r="A99" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="4">
+      <c r="B99" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="4">
+      <c r="C99" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="4">
+      <c r="E99" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="4">
+      <c r="F99" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="4">
+      <c r="G99" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="4">
+      <c r="H99" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3036,28 +3084,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="4">
+      <c r="B101" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="4">
+      <c r="C101" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="4">
+      <c r="D101" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="4">
+      <c r="E101" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="4">
+      <c r="F101" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="4">
+      <c r="G101" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="4">
+      <c r="H101" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="4">
+      <c r="I101" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3145,10 +3193,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="4" t="s">
+      <c r="J104" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3192,28 +3240,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="4">
+      <c r="A106" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="4">
+      <c r="B106" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="4">
+      <c r="C106" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="4">
+      <c r="E106" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="4">
+      <c r="F106" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="4">
+      <c r="G106" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="4">
+      <c r="H106" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3238,28 +3286,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="4">
+      <c r="B108" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="4">
+      <c r="C108" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="4">
+      <c r="D108" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="4">
+      <c r="E108" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="4">
+      <c r="F108" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="4">
+      <c r="G108" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="4">
+      <c r="H108" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="4">
+      <c r="I108" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3347,10 +3395,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="4" t="s">
+      <c r="J111" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3394,28 +3442,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="4">
+      <c r="A113" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="4">
+      <c r="B113" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="4">
+      <c r="C113" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="4">
+      <c r="E113" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="4">
+      <c r="F113" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="4">
+      <c r="G113" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="4">
+      <c r="H113" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3440,28 +3488,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="4">
+      <c r="B115" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="4">
+      <c r="C115" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="4">
+      <c r="D115" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="4">
+      <c r="E115" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="4">
+      <c r="F115" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="4">
+      <c r="G115" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="4">
+      <c r="H115" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="4">
+      <c r="I115" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3520,10 +3568,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="4" t="s">
+      <c r="J117" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3567,28 +3615,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="4">
+      <c r="A119" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="4">
+      <c r="B119" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="4">
+      <c r="C119" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="4">
+      <c r="E119" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="4">
+      <c r="F119" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="4">
+      <c r="G119" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="4">
+      <c r="H119" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3613,28 +3661,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="4">
+      <c r="B121" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="4">
+      <c r="C121" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="4">
+      <c r="D121" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="4">
+      <c r="E121" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="4">
+      <c r="F121" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="4">
+      <c r="G121" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="4">
+      <c r="H121" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="4">
+      <c r="I121" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3751,10 +3799,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="4" t="s">
+      <c r="J125" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3798,28 +3846,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="4">
+      <c r="A127" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="4">
+      <c r="B127" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="4">
+      <c r="C127" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="4">
+      <c r="E127" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="4">
+      <c r="F127" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="4">
+      <c r="G127" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="4">
+      <c r="H127" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3844,28 +3892,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="4">
+      <c r="B129" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="4">
+      <c r="C129" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="4">
+      <c r="D129" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="4">
+      <c r="E129" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="4">
+      <c r="F129" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="4">
+      <c r="G129" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="4">
+      <c r="H129" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="4">
+      <c r="I129" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3924,10 +3972,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="4" t="s">
+      <c r="J131" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3971,28 +4019,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="4">
+      <c r="A133" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="4">
+      <c r="B133" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="4">
+      <c r="C133" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="4">
+      <c r="E133" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="4">
+      <c r="F133" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="4">
+      <c r="G133" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="4">
+      <c r="H133" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4017,28 +4065,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="4">
+      <c r="B135" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="4">
+      <c r="C135" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="4">
+      <c r="D135" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="4">
+      <c r="E135" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="4">
+      <c r="F135" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="4">
+      <c r="G135" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="4">
+      <c r="H135" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="4">
+      <c r="I135" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4097,10 +4145,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="4" t="s">
+      <c r="J137" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4144,28 +4192,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="4">
+      <c r="A139" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="4">
+      <c r="B139" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="4">
+      <c r="C139" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="4">
+      <c r="E139" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="4">
+      <c r="F139" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="4">
+      <c r="G139" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="4">
+      <c r="H139" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4190,28 +4238,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="4">
+      <c r="B141" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="4">
+      <c r="C141" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="4">
+      <c r="D141" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="4">
+      <c r="E141" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="4">
+      <c r="F141" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="4">
+      <c r="G141" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="4">
+      <c r="H141" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="4">
+      <c r="I141" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4357,10 +4405,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="4" t="s">
+      <c r="J146" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4404,28 +4452,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="4">
+      <c r="A148" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="4">
+      <c r="B148" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="4">
+      <c r="C148" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="4">
+      <c r="E148" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="4">
+      <c r="F148" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="4">
+      <c r="G148" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="4">
+      <c r="H148" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4450,28 +4498,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="4">
+      <c r="B150" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="4">
+      <c r="C150" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="4">
+      <c r="D150" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="4">
+      <c r="E150" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="4">
+      <c r="F150" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="4">
+      <c r="G150" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="4">
+      <c r="H150" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="4">
+      <c r="I150" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4530,10 +4578,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="4" t="s">
+      <c r="J152" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4577,28 +4625,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="4">
+      <c r="A154" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="4">
+      <c r="B154" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="4">
+      <c r="C154" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="4">
+      <c r="E154" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="4">
+      <c r="F154" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="4">
+      <c r="G154" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="4">
+      <c r="H154" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4623,28 +4671,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="4">
+      <c r="B156" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="4">
+      <c r="C156" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="4">
+      <c r="D156" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="4">
+      <c r="E156" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="4">
+      <c r="F156" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="4">
+      <c r="G156" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="4">
+      <c r="H156" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="4">
+      <c r="I156" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4732,10 +4780,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="4" t="s">
+      <c r="J159" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4779,28 +4827,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="4">
+      <c r="A161" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="4">
+      <c r="B161" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="4">
+      <c r="C161" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="4">
+      <c r="E161" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="4">
+      <c r="F161" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="4">
+      <c r="G161" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="4">
+      <c r="H161" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4825,28 +4873,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="4">
+      <c r="B163" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="4">
+      <c r="C163" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="4">
+      <c r="D163" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="4">
+      <c r="E163" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="4">
+      <c r="F163" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="4">
+      <c r="G163" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="4">
+      <c r="H163" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="4">
+      <c r="I163" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4905,10 +4953,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="4" t="s">
+      <c r="J165" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4952,28 +5000,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="4">
+      <c r="A167" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="4">
+      <c r="B167" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="4">
+      <c r="C167" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="4">
+      <c r="E167" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="4">
+      <c r="F167" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="4">
+      <c r="G167" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="4">
+      <c r="H167" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4998,28 +5046,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="4">
+      <c r="B169" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="4">
+      <c r="C169" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="4">
+      <c r="D169" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="4">
+      <c r="E169" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="4">
+      <c r="F169" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="4">
+      <c r="G169" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="4">
+      <c r="H169" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="4">
+      <c r="I169" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5107,10 +5155,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="4" t="s">
+      <c r="J172" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5154,28 +5202,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="4">
+      <c r="A174" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="4">
+      <c r="B174" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="4">
+      <c r="C174" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="4">
+      <c r="E174" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="4">
+      <c r="F174" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="4">
+      <c r="G174" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="4">
+      <c r="H174" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5200,28 +5248,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="4">
+      <c r="B176" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="4">
+      <c r="C176" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="4">
+      <c r="D176" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="4">
+      <c r="E176" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="4">
+      <c r="F176" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="4">
+      <c r="G176" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="4">
+      <c r="H176" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="4">
+      <c r="I176" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5280,10 +5328,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="4" t="s">
+      <c r="J178" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5327,28 +5375,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="4">
+      <c r="A180" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="4">
+      <c r="B180" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="4">
+      <c r="C180" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="4">
+      <c r="E180" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="4">
+      <c r="F180" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="4">
+      <c r="G180" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="4">
+      <c r="H180" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5373,28 +5421,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="4">
+      <c r="B182" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="4">
+      <c r="C182" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="4">
+      <c r="D182" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="4">
+      <c r="E182" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="4">
+      <c r="F182" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="4">
+      <c r="G182" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="4">
+      <c r="H182" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="4">
+      <c r="I182" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5511,10 +5559,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="4" t="s">
+      <c r="J186" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5558,28 +5606,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="4">
+      <c r="A188" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="4">
+      <c r="B188" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="4">
+      <c r="C188" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="4">
+      <c r="E188" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="4">
+      <c r="F188" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="4">
+      <c r="G188" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="4">
+      <c r="H188" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5604,28 +5652,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="4">
+      <c r="B190" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="4">
+      <c r="C190" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="4">
+      <c r="D190" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="4">
+      <c r="E190" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="4">
+      <c r="F190" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="4">
+      <c r="G190" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="4">
+      <c r="H190" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="4">
+      <c r="I190" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5713,10 +5761,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="4" t="s">
+      <c r="J193" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5760,28 +5808,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="4">
+      <c r="A195" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="4">
+      <c r="B195" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="4">
+      <c r="C195" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="4">
+      <c r="E195" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="4">
+      <c r="F195" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="4">
+      <c r="G195" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="4">
+      <c r="H195" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5806,28 +5854,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="4">
+      <c r="B197" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="4">
+      <c r="C197" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="4">
+      <c r="D197" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="4">
+      <c r="E197" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="4">
+      <c r="F197" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="4">
+      <c r="G197" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="4">
+      <c r="H197" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="4">
+      <c r="I197" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5973,10 +6021,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="4" t="s">
+      <c r="J202" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6020,28 +6068,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="4">
+      <c r="A204" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="4">
+      <c r="B204" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="4">
+      <c r="C204" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="4">
+      <c r="E204" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="4">
+      <c r="F204" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="4">
+      <c r="G204" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="4">
+      <c r="H204" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6066,28 +6114,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="4">
+      <c r="B206" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="4">
+      <c r="C206" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="4">
+      <c r="D206" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="4">
+      <c r="E206" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="4">
+      <c r="F206" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="4">
+      <c r="G206" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="4">
+      <c r="H206" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="4">
+      <c r="I206" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6146,10 +6194,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="4" t="s">
+      <c r="J208" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6193,28 +6241,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="4">
+      <c r="A210" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="4">
+      <c r="B210" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="4">
+      <c r="C210" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="4">
+      <c r="E210" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="4">
+      <c r="F210" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="4">
+      <c r="G210" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="4">
+      <c r="H210" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6239,28 +6287,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="4">
+      <c r="B212" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="4">
+      <c r="C212" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="4">
+      <c r="D212" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="4">
+      <c r="E212" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="4">
+      <c r="F212" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="4">
+      <c r="G212" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="4">
+      <c r="H212" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="4">
+      <c r="I212" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6319,10 +6367,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="4" t="s">
+      <c r="J214" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6366,28 +6414,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="4">
+      <c r="A216" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="4">
+      <c r="B216" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="4">
+      <c r="C216" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="4">
+      <c r="E216" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="4">
+      <c r="F216" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="4">
+      <c r="G216" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="4">
+      <c r="H216" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6412,28 +6460,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="4">
+      <c r="B218" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="4">
+      <c r="C218" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="4">
+      <c r="D218" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="4">
+      <c r="E218" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="4">
+      <c r="F218" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="4">
+      <c r="G218" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="4">
+      <c r="H218" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="4">
+      <c r="I218" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6492,10 +6540,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="4" t="s">
+      <c r="J220" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6539,28 +6587,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="4">
+      <c r="A222" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="4">
+      <c r="B222" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="4">
+      <c r="C222" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="4">
+      <c r="E222" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="4">
+      <c r="F222" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="4">
+      <c r="G222" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="4">
+      <c r="H222" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6585,28 +6633,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="4">
+      <c r="B224" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="4">
+      <c r="C224" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="4">
+      <c r="D224" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="4">
+      <c r="E224" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="4">
+      <c r="F224" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="4">
+      <c r="G224" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="4">
+      <c r="H224" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="4">
+      <c r="I224" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6665,10 +6713,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="4" t="s">
+      <c r="J226" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6712,28 +6760,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="4">
+      <c r="A228" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="4">
+      <c r="B228" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="4">
+      <c r="C228" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="4">
+      <c r="E228" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="4">
+      <c r="F228" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="4">
+      <c r="G228" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="4">
+      <c r="H228" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6758,28 +6806,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="4">
+      <c r="B230" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="4">
+      <c r="C230" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="4">
+      <c r="D230" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="4">
+      <c r="E230" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="4">
+      <c r="F230" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="4">
+      <c r="G230" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="4">
+      <c r="H230" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="4">
+      <c r="I230" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6954,10 +7002,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="4" t="s">
+      <c r="J236" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -7001,28 +7049,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="4">
+      <c r="A238" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="4">
+      <c r="B238" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="4">
+      <c r="C238" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="4">
+      <c r="E238" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="4">
+      <c r="F238" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="4">
+      <c r="G238" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="4">
+      <c r="H238" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7047,28 +7095,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="4">
+      <c r="B240" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="4">
+      <c r="C240" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="4">
+      <c r="D240" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="4">
+      <c r="E240" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="4">
+      <c r="F240" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="4">
+      <c r="G240" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="4">
+      <c r="H240" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="4">
+      <c r="I240" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7156,10 +7204,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="4" t="s">
+      <c r="J243" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7203,28 +7251,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="4">
+      <c r="A245" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="4">
+      <c r="B245" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="4">
+      <c r="C245" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="4">
+      <c r="E245" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="4">
+      <c r="F245" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="4">
+      <c r="G245" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="4">
+      <c r="H245" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7249,28 +7297,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="4">
+      <c r="B247" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="4">
+      <c r="C247" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="4">
+      <c r="D247" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="4">
+      <c r="E247" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="4">
+      <c r="F247" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="4">
+      <c r="G247" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="4">
+      <c r="H247" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="4">
+      <c r="I247" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7358,10 +7406,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="4" t="s">
+      <c r="J250" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7405,28 +7453,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="4">
+      <c r="A252" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="4">
+      <c r="B252" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="4">
+      <c r="C252" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="4">
+      <c r="E252" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="4">
+      <c r="F252" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="4">
+      <c r="G252" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="4">
+      <c r="H252" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7451,28 +7499,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="4">
+      <c r="B254" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="4">
+      <c r="C254" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="4">
+      <c r="D254" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="4">
+      <c r="E254" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="4">
+      <c r="F254" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="4">
+      <c r="G254" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="4">
+      <c r="H254" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="4">
+      <c r="I254" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7531,10 +7579,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="4" t="s">
+      <c r="J256" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7578,28 +7626,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="4">
+      <c r="A258" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="4">
+      <c r="B258" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="4">
+      <c r="C258" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="4">
+      <c r="E258" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="4">
+      <c r="F258" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="4">
+      <c r="G258" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="4">
+      <c r="H258" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7624,28 +7672,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="4">
+      <c r="B260" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="4">
+      <c r="C260" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="4">
+      <c r="D260" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="4">
+      <c r="E260" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="4">
+      <c r="F260" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="4">
+      <c r="G260" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="4">
+      <c r="H260" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="4">
+      <c r="I260" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7704,10 +7752,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="4" t="s">
+      <c r="J262" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7751,28 +7799,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="4">
+      <c r="A264" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="4">
+      <c r="B264" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="4">
+      <c r="C264" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="4">
+      <c r="E264" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="4">
+      <c r="F264" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="4">
+      <c r="G264" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="4">
+      <c r="H264" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7797,28 +7845,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="4">
+      <c r="B266" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="4">
+      <c r="C266" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="4">
+      <c r="D266" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="4">
+      <c r="E266" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="4">
+      <c r="F266" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="4">
+      <c r="G266" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="4">
+      <c r="H266" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="4">
+      <c r="I266" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7906,10 +7954,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="4" t="s">
+      <c r="J269" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -7953,28 +8001,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="4">
+      <c r="A271" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="4">
+      <c r="B271" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="4">
+      <c r="C271" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="4">
+      <c r="E271" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="4">
+      <c r="F271" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="4">
+      <c r="G271" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="4">
+      <c r="H271" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7999,28 +8047,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="4">
+      <c r="B273" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="4">
+      <c r="C273" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="4">
+      <c r="D273" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="4">
+      <c r="E273" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="4">
+      <c r="F273" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="4">
+      <c r="G273" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="4">
+      <c r="H273" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="4">
+      <c r="I273" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8137,10 +8185,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="4" t="s">
+      <c r="J277" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8184,28 +8232,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="4">
+      <c r="A279" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="4">
+      <c r="B279" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="4">
+      <c r="C279" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="4">
+      <c r="E279" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="4">
+      <c r="F279" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="4">
+      <c r="G279" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="4">
+      <c r="H279" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8230,28 +8278,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="4">
+      <c r="B281" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="4">
+      <c r="C281" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="4">
+      <c r="D281" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="4">
+      <c r="E281" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="4">
+      <c r="F281" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="4">
+      <c r="G281" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="4">
+      <c r="H281" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="4">
+      <c r="I281" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8368,10 +8416,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="4" t="s">
+      <c r="J285" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8415,28 +8463,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="4">
+      <c r="A287" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="4">
+      <c r="B287" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="4">
+      <c r="C287" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="4">
+      <c r="E287" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="4">
+      <c r="F287" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="4">
+      <c r="G287" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="4">
+      <c r="H287" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8461,28 +8509,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="4">
+      <c r="B289" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="4">
+      <c r="C289" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="4">
+      <c r="D289" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="4">
+      <c r="E289" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="4">
+      <c r="F289" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="4">
+      <c r="G289" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="4">
+      <c r="H289" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="4">
+      <c r="I289" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8541,10 +8589,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="4" t="s">
+      <c r="J291" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8588,28 +8636,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="4">
+      <c r="A293" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="4">
+      <c r="B293" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="4">
+      <c r="C293" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="4">
+      <c r="E293" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="4">
+      <c r="F293" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="4">
+      <c r="G293" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="4">
+      <c r="H293" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8634,28 +8682,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="4">
+      <c r="B295" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="4">
+      <c r="C295" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="4">
+      <c r="D295" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="4">
+      <c r="E295" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="4">
+      <c r="F295" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="4">
+      <c r="G295" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="4">
+      <c r="H295" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="4">
+      <c r="I295" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8743,10 +8791,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="4" t="s">
+      <c r="J298" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8790,28 +8838,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="4">
+      <c r="A300" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="4">
+      <c r="B300" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="4">
+      <c r="C300" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="4">
+      <c r="E300" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="4">
+      <c r="F300" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="4">
+      <c r="G300" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="4">
+      <c r="H300" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8836,28 +8884,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="4">
+      <c r="B302" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="4">
+      <c r="C302" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="4">
+      <c r="D302" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="4">
+      <c r="E302" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="4">
+      <c r="F302" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="4">
+      <c r="G302" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="4">
+      <c r="H302" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="4">
+      <c r="I302" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8945,10 +8993,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="4" t="s">
+      <c r="J305" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -8992,28 +9040,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="4">
+      <c r="A307" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="4">
+      <c r="B307" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="4">
+      <c r="C307" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="4">
+      <c r="E307" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="4">
+      <c r="F307" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="4">
+      <c r="G307" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="4">
+      <c r="H307" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9038,28 +9086,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="4">
+      <c r="B309" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="4">
+      <c r="C309" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="4">
+      <c r="D309" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="4">
+      <c r="E309" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="4">
+      <c r="F309" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="4">
+      <c r="G309" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="4">
+      <c r="H309" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="4">
+      <c r="I309" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9118,10 +9166,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="4" t="s">
+      <c r="J311" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9165,28 +9213,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="4">
+      <c r="A313" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="4">
+      <c r="B313" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="4">
+      <c r="C313" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="4">
+      <c r="E313" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="4">
+      <c r="F313" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="4">
+      <c r="G313" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="4">
+      <c r="H313" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9211,28 +9259,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="4">
+      <c r="B315" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="4">
+      <c r="C315" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="4">
+      <c r="D315" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="4">
+      <c r="E315" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="4">
+      <c r="F315" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="4">
+      <c r="G315" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="4">
+      <c r="H315" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="4">
+      <c r="I315" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9320,10 +9368,10 @@
       <c r="I318">
         <f>((C318-C317)^2+(D318- D317)^2)^.5</f>
       </c>
-      <c r="J318" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K318" s="4" t="s">
+      <c r="J318" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K318" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L318" t="n">
@@ -9367,28 +9415,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="s" s="4">
+      <c r="A320" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B320" t="s" s="4">
+      <c r="B320" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C320" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D320" t="s" s="4">
+      <c r="C320" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E320" t="s" s="4">
+      <c r="E320" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F320" t="s" s="4">
+      <c r="F320" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G320" t="s" s="4">
+      <c r="G320" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H320" t="s" s="4">
+      <c r="H320" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9413,28 +9461,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="B322" t="s" s="4">
+      <c r="B322" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C322" t="s" s="4">
+      <c r="C322" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D322" t="s" s="4">
+      <c r="D322" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E322" t="s" s="4">
+      <c r="E322" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F322" t="s" s="4">
+      <c r="F322" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G322" t="s" s="4">
+      <c r="G322" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H322" t="s" s="4">
+      <c r="H322" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I322" t="s" s="4">
+      <c r="I322" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9522,10 +9570,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="4" t="s">
+      <c r="J325" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9569,28 +9617,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="4">
+      <c r="A327" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="4">
+      <c r="B327" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="4">
+      <c r="C327" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="4">
+      <c r="E327" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="4">
+      <c r="F327" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="4">
+      <c r="G327" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="4">
+      <c r="H327" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9615,28 +9663,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="4">
+      <c r="B329" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="4">
+      <c r="C329" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="4">
+      <c r="D329" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="4">
+      <c r="E329" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="4">
+      <c r="F329" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="4">
+      <c r="G329" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="4">
+      <c r="H329" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="4">
+      <c r="I329" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9695,10 +9743,10 @@
       <c r="I331">
         <f>((C331-C330)^2+(D331- D330)^2)^.5</f>
       </c>
-      <c r="J331" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K331" s="4" t="s">
+      <c r="J331" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K331" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L331" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10992" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13524" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -392,10 +410,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -439,28 +457,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="12">
+      <c r="A9" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="12">
+      <c r="B9" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="12">
+      <c r="C9" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="12">
+      <c r="E9" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="12">
+      <c r="F9" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="12">
+      <c r="G9" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="12">
+      <c r="H9" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -485,28 +503,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="12">
+      <c r="B11" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="12">
+      <c r="C11" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="12">
+      <c r="D11" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="12">
+      <c r="E11" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="12">
+      <c r="F11" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="12">
+      <c r="G11" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="12">
+      <c r="H11" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="12">
+      <c r="I11" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -681,10 +699,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="12" t="s">
+      <c r="J17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -728,28 +746,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="12">
+      <c r="A19" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="12">
+      <c r="B19" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="12">
+      <c r="C19" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="12">
+      <c r="E19" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="12">
+      <c r="F19" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="12">
+      <c r="G19" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="12">
+      <c r="H19" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -774,28 +792,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="12">
+      <c r="B21" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="12">
+      <c r="C21" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="12">
+      <c r="D21" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="12">
+      <c r="E21" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="12">
+      <c r="F21" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="12">
+      <c r="G21" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="12">
+      <c r="H21" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="12">
+      <c r="I21" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -883,10 +901,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="12" t="s">
+      <c r="J24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -930,28 +948,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="12">
+      <c r="A26" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="12">
+      <c r="B26" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="12">
+      <c r="C26" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="12">
+      <c r="E26" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="12">
+      <c r="F26" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="12">
+      <c r="G26" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="12">
+      <c r="H26" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -976,28 +994,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="12">
+      <c r="B28" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="12">
+      <c r="C28" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="12">
+      <c r="D28" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="12">
+      <c r="E28" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="12">
+      <c r="F28" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="12">
+      <c r="G28" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="12">
+      <c r="H28" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="12">
+      <c r="I28" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1056,10 +1074,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="12" t="s">
+      <c r="J30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1103,28 +1121,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="12">
+      <c r="A32" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="12">
+      <c r="B32" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="12">
+      <c r="C32" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="12">
+      <c r="E32" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="12">
+      <c r="F32" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="12">
+      <c r="G32" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="12">
+      <c r="H32" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1149,28 +1167,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="12">
+      <c r="B34" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="12">
+      <c r="C34" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="12">
+      <c r="D34" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="12">
+      <c r="E34" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="12">
+      <c r="F34" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="12">
+      <c r="G34" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="12">
+      <c r="H34" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="12">
+      <c r="I34" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1287,10 +1305,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="12" t="s">
+      <c r="J38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1334,28 +1352,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="12">
+      <c r="A40" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="12">
+      <c r="B40" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="12">
+      <c r="C40" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="12">
+      <c r="E40" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="12">
+      <c r="F40" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="12">
+      <c r="G40" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="12">
+      <c r="H40" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1380,28 +1398,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="12">
+      <c r="B42" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="12">
+      <c r="C42" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="12">
+      <c r="D42" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="12">
+      <c r="E42" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="12">
+      <c r="F42" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="12">
+      <c r="G42" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="12">
+      <c r="H42" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="12">
+      <c r="I42" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1518,10 +1536,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="12" t="s">
+      <c r="J46" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1565,28 +1583,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="12">
+      <c r="A48" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="12">
+      <c r="B48" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="12">
+      <c r="C48" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="12">
+      <c r="E48" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="12">
+      <c r="F48" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="12">
+      <c r="G48" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="12">
+      <c r="H48" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1611,28 +1629,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="12">
+      <c r="B50" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="12">
+      <c r="C50" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="12">
+      <c r="D50" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="12">
+      <c r="E50" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="12">
+      <c r="F50" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="12">
+      <c r="G50" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="12">
+      <c r="H50" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="12">
+      <c r="I50" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1807,10 +1825,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="12" t="s">
+      <c r="J56" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1854,28 +1872,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="12">
+      <c r="A58" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="12">
+      <c r="B58" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="12">
+      <c r="C58" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="12">
+      <c r="E58" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="12">
+      <c r="F58" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="12">
+      <c r="G58" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="12">
+      <c r="H58" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1900,28 +1918,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="12">
+      <c r="B60" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="12">
+      <c r="C60" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="12">
+      <c r="D60" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="12">
+      <c r="E60" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="12">
+      <c r="F60" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="12">
+      <c r="G60" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="12">
+      <c r="H60" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="12">
+      <c r="I60" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2096,10 +2114,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="12" t="s">
+      <c r="J66" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2143,28 +2161,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="12">
+      <c r="A68" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="12">
+      <c r="B68" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="12">
+      <c r="C68" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="12">
+      <c r="E68" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="12">
+      <c r="F68" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="12">
+      <c r="G68" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="12">
+      <c r="H68" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2189,28 +2207,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="12">
+      <c r="B70" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="12">
+      <c r="C70" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="12">
+      <c r="D70" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="12">
+      <c r="E70" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="12">
+      <c r="F70" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="12">
+      <c r="G70" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="12">
+      <c r="H70" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="12">
+      <c r="I70" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2327,10 +2345,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="12" t="s">
+      <c r="J74" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2374,28 +2392,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="12">
+      <c r="A76" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="12">
+      <c r="B76" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="12">
+      <c r="C76" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="12">
+      <c r="E76" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="12">
+      <c r="F76" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="12">
+      <c r="G76" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="12">
+      <c r="H76" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2420,28 +2438,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="12">
+      <c r="B78" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="12">
+      <c r="C78" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="12">
+      <c r="D78" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="12">
+      <c r="E78" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="12">
+      <c r="F78" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="12">
+      <c r="G78" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="12">
+      <c r="H78" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="12">
+      <c r="I78" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2558,10 +2576,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="12" t="s">
+      <c r="J82" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2605,28 +2623,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="12">
+      <c r="A84" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="12">
+      <c r="B84" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="12">
+      <c r="C84" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="12">
+      <c r="E84" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="12">
+      <c r="F84" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="12">
+      <c r="G84" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="12">
+      <c r="H84" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2651,28 +2669,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="12">
+      <c r="B86" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="12">
+      <c r="C86" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="12">
+      <c r="D86" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="12">
+      <c r="E86" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="12">
+      <c r="F86" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="12">
+      <c r="G86" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="12">
+      <c r="H86" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="12">
+      <c r="I86" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2731,10 +2749,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="12" t="s">
+      <c r="J88" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2778,28 +2796,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="12">
+      <c r="A90" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="12">
+      <c r="B90" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="12">
+      <c r="C90" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="12">
+      <c r="E90" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="12">
+      <c r="F90" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="12">
+      <c r="G90" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="12">
+      <c r="H90" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2824,28 +2842,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="12">
+      <c r="B92" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="12">
+      <c r="C92" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="12">
+      <c r="D92" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="12">
+      <c r="E92" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="12">
+      <c r="F92" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="12">
+      <c r="G92" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="12">
+      <c r="H92" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="12">
+      <c r="I92" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2991,10 +3009,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="12" t="s">
+      <c r="J97" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -3038,28 +3056,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="12">
+      <c r="A99" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="12">
+      <c r="B99" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="12">
+      <c r="C99" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="12">
+      <c r="E99" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="12">
+      <c r="F99" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="12">
+      <c r="G99" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="12">
+      <c r="H99" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3084,28 +3102,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="12">
+      <c r="B101" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="12">
+      <c r="C101" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="12">
+      <c r="D101" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="12">
+      <c r="E101" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="12">
+      <c r="F101" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="12">
+      <c r="G101" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="12">
+      <c r="H101" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="12">
+      <c r="I101" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3193,10 +3211,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="12" t="s">
+      <c r="J104" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3240,28 +3258,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="12">
+      <c r="A106" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="12">
+      <c r="B106" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="12">
+      <c r="C106" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="12">
+      <c r="E106" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="12">
+      <c r="F106" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="12">
+      <c r="G106" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="12">
+      <c r="H106" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3286,28 +3304,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="12">
+      <c r="B108" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="12">
+      <c r="C108" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="12">
+      <c r="D108" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="12">
+      <c r="E108" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="12">
+      <c r="F108" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="12">
+      <c r="G108" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="12">
+      <c r="H108" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="12">
+      <c r="I108" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3395,10 +3413,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="12" t="s">
+      <c r="J111" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3442,28 +3460,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="12">
+      <c r="A113" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="12">
+      <c r="B113" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="12">
+      <c r="C113" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="12">
+      <c r="E113" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="12">
+      <c r="F113" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="12">
+      <c r="G113" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="12">
+      <c r="H113" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3488,28 +3506,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="12">
+      <c r="B115" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="12">
+      <c r="C115" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="12">
+      <c r="D115" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="12">
+      <c r="E115" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="12">
+      <c r="F115" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="12">
+      <c r="G115" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="12">
+      <c r="H115" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="12">
+      <c r="I115" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3568,10 +3586,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="12" t="s">
+      <c r="J117" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3615,28 +3633,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="12">
+      <c r="A119" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="12">
+      <c r="B119" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="12">
+      <c r="C119" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="12">
+      <c r="E119" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="12">
+      <c r="F119" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="12">
+      <c r="G119" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="12">
+      <c r="H119" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3661,28 +3679,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="12">
+      <c r="B121" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="12">
+      <c r="C121" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="12">
+      <c r="D121" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="12">
+      <c r="E121" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="12">
+      <c r="F121" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="12">
+      <c r="G121" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="12">
+      <c r="H121" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="12">
+      <c r="I121" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3799,10 +3817,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="12" t="s">
+      <c r="J125" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3846,28 +3864,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="12">
+      <c r="A127" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="12">
+      <c r="B127" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="12">
+      <c r="C127" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="12">
+      <c r="E127" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="12">
+      <c r="F127" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="12">
+      <c r="G127" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="12">
+      <c r="H127" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3892,28 +3910,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="12">
+      <c r="B129" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="12">
+      <c r="C129" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="12">
+      <c r="D129" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="12">
+      <c r="E129" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="12">
+      <c r="F129" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="12">
+      <c r="G129" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="12">
+      <c r="H129" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="12">
+      <c r="I129" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3972,10 +3990,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="12" t="s">
+      <c r="J131" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -4019,28 +4037,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="12">
+      <c r="A133" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="12">
+      <c r="B133" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="12">
+      <c r="C133" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="12">
+      <c r="E133" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="12">
+      <c r="F133" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="12">
+      <c r="G133" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="12">
+      <c r="H133" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4065,28 +4083,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="12">
+      <c r="B135" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="12">
+      <c r="C135" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="12">
+      <c r="D135" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="12">
+      <c r="E135" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="12">
+      <c r="F135" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="12">
+      <c r="G135" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="12">
+      <c r="H135" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="12">
+      <c r="I135" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4145,10 +4163,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="12" t="s">
+      <c r="J137" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4192,28 +4210,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="12">
+      <c r="A139" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="12">
+      <c r="B139" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="12">
+      <c r="C139" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="12">
+      <c r="E139" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="12">
+      <c r="F139" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="12">
+      <c r="G139" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="12">
+      <c r="H139" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4238,28 +4256,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="12">
+      <c r="B141" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="12">
+      <c r="C141" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="12">
+      <c r="D141" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="12">
+      <c r="E141" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="12">
+      <c r="F141" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="12">
+      <c r="G141" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="12">
+      <c r="H141" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="12">
+      <c r="I141" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4405,10 +4423,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="12" t="s">
+      <c r="J146" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4452,28 +4470,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="12">
+      <c r="A148" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="12">
+      <c r="B148" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="12">
+      <c r="C148" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="12">
+      <c r="E148" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="12">
+      <c r="F148" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="12">
+      <c r="G148" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="12">
+      <c r="H148" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4498,28 +4516,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="12">
+      <c r="B150" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="12">
+      <c r="C150" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="12">
+      <c r="D150" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="12">
+      <c r="E150" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="12">
+      <c r="F150" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="12">
+      <c r="G150" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="12">
+      <c r="H150" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="12">
+      <c r="I150" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4578,10 +4596,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="12" t="s">
+      <c r="J152" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4625,28 +4643,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="12">
+      <c r="A154" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="12">
+      <c r="B154" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="12">
+      <c r="C154" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="12">
+      <c r="E154" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="12">
+      <c r="F154" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="12">
+      <c r="G154" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="12">
+      <c r="H154" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4671,28 +4689,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="12">
+      <c r="B156" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="12">
+      <c r="C156" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="12">
+      <c r="D156" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="12">
+      <c r="E156" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="12">
+      <c r="F156" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="12">
+      <c r="G156" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="12">
+      <c r="H156" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="12">
+      <c r="I156" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4780,10 +4798,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="12" t="s">
+      <c r="J159" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4827,28 +4845,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="12">
+      <c r="A161" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="12">
+      <c r="B161" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="12">
+      <c r="C161" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="12">
+      <c r="E161" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="12">
+      <c r="F161" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="12">
+      <c r="G161" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="12">
+      <c r="H161" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4873,28 +4891,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="12">
+      <c r="B163" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="12">
+      <c r="C163" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="12">
+      <c r="D163" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="12">
+      <c r="E163" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="12">
+      <c r="F163" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="12">
+      <c r="G163" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="12">
+      <c r="H163" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="12">
+      <c r="I163" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4953,10 +4971,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="12" t="s">
+      <c r="J165" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -5000,28 +5018,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="12">
+      <c r="A167" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="12">
+      <c r="B167" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="12">
+      <c r="C167" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="12">
+      <c r="E167" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="12">
+      <c r="F167" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="12">
+      <c r="G167" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="12">
+      <c r="H167" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5046,28 +5064,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="12">
+      <c r="B169" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="12">
+      <c r="C169" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="12">
+      <c r="D169" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="12">
+      <c r="E169" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="12">
+      <c r="F169" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="12">
+      <c r="G169" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="12">
+      <c r="H169" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="12">
+      <c r="I169" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5155,10 +5173,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="12" t="s">
+      <c r="J172" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5202,28 +5220,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="12">
+      <c r="A174" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="12">
+      <c r="B174" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="12">
+      <c r="C174" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="12">
+      <c r="E174" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="12">
+      <c r="F174" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="12">
+      <c r="G174" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="12">
+      <c r="H174" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5248,28 +5266,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="12">
+      <c r="B176" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="12">
+      <c r="C176" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="12">
+      <c r="D176" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="12">
+      <c r="E176" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="12">
+      <c r="F176" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="12">
+      <c r="G176" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="12">
+      <c r="H176" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="12">
+      <c r="I176" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5328,10 +5346,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="12" t="s">
+      <c r="J178" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5375,28 +5393,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="12">
+      <c r="A180" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="12">
+      <c r="B180" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="12">
+      <c r="C180" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="12">
+      <c r="E180" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="12">
+      <c r="F180" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="12">
+      <c r="G180" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="12">
+      <c r="H180" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5421,28 +5439,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="12">
+      <c r="B182" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="12">
+      <c r="C182" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="12">
+      <c r="D182" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="12">
+      <c r="E182" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="12">
+      <c r="F182" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="12">
+      <c r="G182" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="12">
+      <c r="H182" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="12">
+      <c r="I182" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5559,10 +5577,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="12" t="s">
+      <c r="J186" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5606,28 +5624,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="12">
+      <c r="A188" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="12">
+      <c r="B188" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="12">
+      <c r="C188" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="12">
+      <c r="E188" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="12">
+      <c r="F188" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="12">
+      <c r="G188" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="12">
+      <c r="H188" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5652,28 +5670,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="12">
+      <c r="B190" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="12">
+      <c r="C190" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="12">
+      <c r="D190" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="12">
+      <c r="E190" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="12">
+      <c r="F190" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="12">
+      <c r="G190" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="12">
+      <c r="H190" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="12">
+      <c r="I190" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5761,10 +5779,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="12" t="s">
+      <c r="J193" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5808,28 +5826,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="12">
+      <c r="A195" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="12">
+      <c r="B195" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="12">
+      <c r="C195" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="12">
+      <c r="E195" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="12">
+      <c r="F195" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="12">
+      <c r="G195" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="12">
+      <c r="H195" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5854,28 +5872,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="12">
+      <c r="B197" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="12">
+      <c r="C197" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="12">
+      <c r="D197" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="12">
+      <c r="E197" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="12">
+      <c r="F197" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="12">
+      <c r="G197" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="12">
+      <c r="H197" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="12">
+      <c r="I197" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6021,10 +6039,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="12" t="s">
+      <c r="J202" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6068,28 +6086,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="12">
+      <c r="A204" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="12">
+      <c r="B204" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="12">
+      <c r="C204" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="12">
+      <c r="E204" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="12">
+      <c r="F204" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="12">
+      <c r="G204" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="12">
+      <c r="H204" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6114,28 +6132,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="12">
+      <c r="B206" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="12">
+      <c r="C206" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="12">
+      <c r="D206" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="12">
+      <c r="E206" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="12">
+      <c r="F206" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="12">
+      <c r="G206" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="12">
+      <c r="H206" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="12">
+      <c r="I206" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6194,10 +6212,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="12" t="s">
+      <c r="J208" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6241,28 +6259,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="12">
+      <c r="A210" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="12">
+      <c r="B210" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="12">
+      <c r="C210" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="12">
+      <c r="E210" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="12">
+      <c r="F210" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="12">
+      <c r="G210" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="12">
+      <c r="H210" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6287,28 +6305,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="12">
+      <c r="B212" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="12">
+      <c r="C212" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="12">
+      <c r="D212" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="12">
+      <c r="E212" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="12">
+      <c r="F212" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="12">
+      <c r="G212" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="12">
+      <c r="H212" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="12">
+      <c r="I212" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6367,10 +6385,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="12" t="s">
+      <c r="J214" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6414,28 +6432,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="12">
+      <c r="A216" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="12">
+      <c r="B216" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="12">
+      <c r="C216" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="12">
+      <c r="E216" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="12">
+      <c r="F216" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="12">
+      <c r="G216" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="12">
+      <c r="H216" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6460,28 +6478,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="12">
+      <c r="B218" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="12">
+      <c r="C218" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="12">
+      <c r="D218" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="12">
+      <c r="E218" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="12">
+      <c r="F218" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="12">
+      <c r="G218" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="12">
+      <c r="H218" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="12">
+      <c r="I218" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6540,10 +6558,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="12" t="s">
+      <c r="J220" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6587,28 +6605,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="12">
+      <c r="A222" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="12">
+      <c r="B222" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="12">
+      <c r="C222" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="12">
+      <c r="E222" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="12">
+      <c r="F222" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="12">
+      <c r="G222" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="12">
+      <c r="H222" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6633,28 +6651,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="12">
+      <c r="B224" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="12">
+      <c r="C224" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="12">
+      <c r="D224" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="12">
+      <c r="E224" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="12">
+      <c r="F224" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="12">
+      <c r="G224" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="12">
+      <c r="H224" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="12">
+      <c r="I224" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6713,10 +6731,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="12" t="s">
+      <c r="J226" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6760,28 +6778,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="12">
+      <c r="A228" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="12">
+      <c r="B228" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="12">
+      <c r="C228" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="12">
+      <c r="E228" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="12">
+      <c r="F228" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="12">
+      <c r="G228" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="12">
+      <c r="H228" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6806,28 +6824,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="12">
+      <c r="B230" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="12">
+      <c r="C230" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="12">
+      <c r="D230" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="12">
+      <c r="E230" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="12">
+      <c r="F230" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="12">
+      <c r="G230" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="12">
+      <c r="H230" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="12">
+      <c r="I230" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7002,10 +7020,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="12" t="s">
+      <c r="J236" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -7049,28 +7067,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="12">
+      <c r="A238" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="12">
+      <c r="B238" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="12">
+      <c r="C238" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="12">
+      <c r="E238" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="12">
+      <c r="F238" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="12">
+      <c r="G238" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="12">
+      <c r="H238" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7095,28 +7113,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="12">
+      <c r="B240" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="12">
+      <c r="C240" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="12">
+      <c r="D240" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="12">
+      <c r="E240" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="12">
+      <c r="F240" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="12">
+      <c r="G240" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="12">
+      <c r="H240" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="12">
+      <c r="I240" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7204,10 +7222,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="12" t="s">
+      <c r="J243" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7251,28 +7269,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="12">
+      <c r="A245" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="12">
+      <c r="B245" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="12">
+      <c r="C245" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="12">
+      <c r="E245" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="12">
+      <c r="F245" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="12">
+      <c r="G245" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="12">
+      <c r="H245" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7297,28 +7315,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="12">
+      <c r="B247" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="12">
+      <c r="C247" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="12">
+      <c r="D247" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="12">
+      <c r="E247" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="12">
+      <c r="F247" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="12">
+      <c r="G247" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="12">
+      <c r="H247" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="12">
+      <c r="I247" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7406,10 +7424,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="12" t="s">
+      <c r="J250" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7453,28 +7471,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="12">
+      <c r="A252" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="12">
+      <c r="B252" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="12">
+      <c r="C252" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="12">
+      <c r="E252" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="12">
+      <c r="F252" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="12">
+      <c r="G252" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="12">
+      <c r="H252" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7499,28 +7517,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="12">
+      <c r="B254" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="12">
+      <c r="C254" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="12">
+      <c r="D254" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="12">
+      <c r="E254" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="12">
+      <c r="F254" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="12">
+      <c r="G254" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="12">
+      <c r="H254" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="12">
+      <c r="I254" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7579,10 +7597,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="12" t="s">
+      <c r="J256" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7626,28 +7644,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="12">
+      <c r="A258" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="12">
+      <c r="B258" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="12">
+      <c r="C258" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="12">
+      <c r="E258" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="12">
+      <c r="F258" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="12">
+      <c r="G258" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="12">
+      <c r="H258" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7672,28 +7690,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="12">
+      <c r="B260" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="12">
+      <c r="C260" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="12">
+      <c r="D260" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="12">
+      <c r="E260" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="12">
+      <c r="F260" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="12">
+      <c r="G260" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="12">
+      <c r="H260" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="12">
+      <c r="I260" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7752,10 +7770,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="12" t="s">
+      <c r="J262" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7799,28 +7817,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="12">
+      <c r="A264" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="12">
+      <c r="B264" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="12">
+      <c r="C264" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="12">
+      <c r="E264" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="12">
+      <c r="F264" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="12">
+      <c r="G264" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="12">
+      <c r="H264" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7845,28 +7863,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="12">
+      <c r="B266" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="12">
+      <c r="C266" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="12">
+      <c r="D266" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="12">
+      <c r="E266" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="12">
+      <c r="F266" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="12">
+      <c r="G266" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="12">
+      <c r="H266" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="12">
+      <c r="I266" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7954,10 +7972,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="12" t="s">
+      <c r="J269" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -8001,28 +8019,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="12">
+      <c r="A271" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="12">
+      <c r="B271" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="12">
+      <c r="C271" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="12">
+      <c r="E271" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="12">
+      <c r="F271" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="12">
+      <c r="G271" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="12">
+      <c r="H271" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8047,28 +8065,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="12">
+      <c r="B273" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="12">
+      <c r="C273" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="12">
+      <c r="D273" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="12">
+      <c r="E273" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="12">
+      <c r="F273" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="12">
+      <c r="G273" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="12">
+      <c r="H273" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="12">
+      <c r="I273" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8185,10 +8203,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="12" t="s">
+      <c r="J277" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8232,28 +8250,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="12">
+      <c r="A279" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="12">
+      <c r="B279" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="12">
+      <c r="C279" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="12">
+      <c r="E279" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="12">
+      <c r="F279" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="12">
+      <c r="G279" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="12">
+      <c r="H279" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8278,28 +8296,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="12">
+      <c r="B281" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="12">
+      <c r="C281" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="12">
+      <c r="D281" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="12">
+      <c r="E281" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="12">
+      <c r="F281" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="12">
+      <c r="G281" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="12">
+      <c r="H281" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="12">
+      <c r="I281" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8416,10 +8434,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="12" t="s">
+      <c r="J285" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8463,28 +8481,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="12">
+      <c r="A287" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="12">
+      <c r="B287" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="12">
+      <c r="C287" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="12">
+      <c r="E287" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="12">
+      <c r="F287" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="12">
+      <c r="G287" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="12">
+      <c r="H287" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8509,28 +8527,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="12">
+      <c r="B289" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="12">
+      <c r="C289" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="12">
+      <c r="D289" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="12">
+      <c r="E289" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="12">
+      <c r="F289" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="12">
+      <c r="G289" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="12">
+      <c r="H289" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="12">
+      <c r="I289" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8589,10 +8607,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="12" t="s">
+      <c r="J291" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8636,28 +8654,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="12">
+      <c r="A293" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="12">
+      <c r="B293" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="12">
+      <c r="C293" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="12">
+      <c r="E293" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="12">
+      <c r="F293" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="12">
+      <c r="G293" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="12">
+      <c r="H293" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8682,28 +8700,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="12">
+      <c r="B295" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="12">
+      <c r="C295" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="12">
+      <c r="D295" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="12">
+      <c r="E295" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="12">
+      <c r="F295" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="12">
+      <c r="G295" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="12">
+      <c r="H295" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="12">
+      <c r="I295" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8791,10 +8809,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="12" t="s">
+      <c r="J298" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8838,28 +8856,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="12">
+      <c r="A300" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="12">
+      <c r="B300" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="12">
+      <c r="C300" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="12">
+      <c r="E300" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="12">
+      <c r="F300" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="12">
+      <c r="G300" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="12">
+      <c r="H300" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8884,28 +8902,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="12">
+      <c r="B302" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="12">
+      <c r="C302" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="12">
+      <c r="D302" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="12">
+      <c r="E302" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="12">
+      <c r="F302" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="12">
+      <c r="G302" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="12">
+      <c r="H302" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="12">
+      <c r="I302" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8993,10 +9011,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="12" t="s">
+      <c r="J305" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -9040,28 +9058,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="12">
+      <c r="A307" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="12">
+      <c r="B307" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="12">
+      <c r="C307" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="12">
+      <c r="E307" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="12">
+      <c r="F307" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="12">
+      <c r="G307" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="12">
+      <c r="H307" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9086,28 +9104,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="12">
+      <c r="B309" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="12">
+      <c r="C309" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="12">
+      <c r="D309" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="12">
+      <c r="E309" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="12">
+      <c r="F309" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="12">
+      <c r="G309" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="12">
+      <c r="H309" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="12">
+      <c r="I309" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9166,10 +9184,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="12" t="s">
+      <c r="J311" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9213,28 +9231,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="12">
+      <c r="A313" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="12">
+      <c r="B313" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="12">
+      <c r="C313" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="12">
+      <c r="E313" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="12">
+      <c r="F313" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="12">
+      <c r="G313" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="12">
+      <c r="H313" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9259,28 +9277,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="12">
+      <c r="B315" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="12">
+      <c r="C315" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="12">
+      <c r="D315" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="12">
+      <c r="E315" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="12">
+      <c r="F315" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="12">
+      <c r="G315" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="12">
+      <c r="H315" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="12">
+      <c r="I315" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9368,10 +9386,10 @@
       <c r="I318">
         <f>((C318-C317)^2+(D318- D317)^2)^.5</f>
       </c>
-      <c r="J318" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K318" s="12" t="s">
+      <c r="J318" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K318" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L318" t="n">
@@ -9415,28 +9433,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="s" s="12">
+      <c r="A320" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B320" t="s" s="12">
+      <c r="B320" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C320" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D320" t="s" s="12">
+      <c r="C320" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E320" t="s" s="12">
+      <c r="E320" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F320" t="s" s="12">
+      <c r="F320" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G320" t="s" s="12">
+      <c r="G320" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H320" t="s" s="12">
+      <c r="H320" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9461,28 +9479,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="B322" t="s" s="12">
+      <c r="B322" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C322" t="s" s="12">
+      <c r="C322" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D322" t="s" s="12">
+      <c r="D322" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E322" t="s" s="12">
+      <c r="E322" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F322" t="s" s="12">
+      <c r="F322" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G322" t="s" s="12">
+      <c r="G322" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H322" t="s" s="12">
+      <c r="H322" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I322" t="s" s="12">
+      <c r="I322" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9570,10 +9588,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="12" t="s">
+      <c r="J325" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9617,28 +9635,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="12">
+      <c r="A327" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="12">
+      <c r="B327" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="12">
+      <c r="C327" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="12">
+      <c r="E327" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="12">
+      <c r="F327" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="12">
+      <c r="G327" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="12">
+      <c r="H327" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9663,28 +9681,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="12">
+      <c r="B329" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="12">
+      <c r="C329" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="12">
+      <c r="D329" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="12">
+      <c r="E329" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="12">
+      <c r="F329" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="12">
+      <c r="G329" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="12">
+      <c r="H329" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="12">
+      <c r="I329" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9743,10 +9761,10 @@
       <c r="I331">
         <f>((C331-C330)^2+(D331- D330)^2)^.5</f>
       </c>
-      <c r="J331" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K331" s="12" t="s">
+      <c r="J331" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K331" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L331" t="n">
